--- a/src/test/java/com/testng/testdata/test_login.xlsx
+++ b/src/test/java/com/testng/testdata/test_login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>case_id</t>
   </si>
@@ -72,7 +72,7 @@
     <t>res.json()['result']==True</t>
   </si>
   <si>
-    <t>{'result': True, 'feed': {'id': 5657642, 'author': {'id': 60554, 'nickname': '10000000182', 'avatarFile': 'timing-test_60554_1561194874972_0l9uh2s4rie53enl2sod', 'avatarID': '441116', 'gender': 'female', 'birthday': 978278400000, 'avatar': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60554_1561194874972_0l9uh2s4rie53enl2sod', 'department': '76', 'categoryAlias': '高考/艺考', 'categoryID': '24', 'categoryIDs': '24,7178', 'regTime': '2018-11-21 09:54:13', 'type': 'normal', 'isOfficial': False, 'disabled': False, 'fansCount': 15, 'followUserCount': 34, 'isVerify': False, 'authenticationInfo': None, 'statusInfo': {'type': 1, 'startTime': 1630467342000, 'learningData': None}, 'accountType': 0, 'timingID': 243712457}, 'content': 'test', 'type': 3, 'replyCount': None, 'likeCount': None, 'isLike': False, 'isAd': False, 'postTime': 1649297539000, 'tagList': [], 'imageList': [{'id': 808401, 'width': 1080, 'fileName': 'timing-test_60514_1922892798', 'height': 2340, 'isGif': False, 'url': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60514_1922892798', 'shareImgUrl': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60514_1922892798?x-oss-process=image/resize,m_fill,w_300,h_300'}, {'id': 808402, 'width': 1080, 'fileName': 'light/freeLivetiming-test_60617_921901946', 'height': 1885, 'isGif': False, 'url': 'http://timingtest-imgservice.kr-cell.com/image/light/freeLivetiming-test_60617_921901946', 'shareImgUrl': 'http://timingtest-imgservice.kr-cell.com/image/light/freeLivetiming-test_60617_921901946?x-oss-process=image/resize,m_fill,w_300,h_300'}], 'learningRecord': None, 'video': None, 'web': None, 'replyList': [], 'topic': {'id': 851, 'name': '啊啊啊啊啊1213', 'type': 1}, 'svlogLabel': [], 'svlogClassification': None, 'originalType': 0, 'weather': {'city': '', 'name': '', 'postTime': ''}}}</t>
+    <t>test2</t>
   </si>
   <si>
     <t>PASS</t>
@@ -130,16 +130,22 @@
   <si>
     <t>{"phone":"10000000186","password":"111112"}</t>
   </si>
+  <si>
+    <t>{'result': True, 'feed': {'id': 5657642, 'author': {'id': 60554, 'nickname': '10000000182', 'avatarFile': 'timing-test_60554_1561194874972_0l9uh2s4rie53enl2sod', 'avatarID': '441116', 'gender': 'female', 'birthday': 978278400000, 'avatar': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60554_1561194874972_0l9uh2s4rie53enl2sod', 'department': '76', 'categoryAlias': '高考/艺考', 'categoryID': '24', 'categoryIDs': '24,7178', 'regTime': '2018-11-21 09:54:13', 'type': 'normal', 'isOfficial': False, 'disabled': False, 'fansCount': 15, 'followUserCount': 34, 'isVerify': False, 'authenticationInfo': None, 'statusInfo': {'type': 1, 'startTime': 1630467342000, 'learningData': None}, 'accountType': 0, 'timingID': 243712457}, 'content': 'test', 'type': 3, 'replyCount': None, 'likeCount': None, 'isLike': False, 'isAd': False, 'postTime': 1649297539000, 'tagList': [], 'imageList': [{'id': 808401, 'width': 1080, 'fileName': 'timing-test_60514_1922892798', 'height': 2340, 'isGif': False, 'url': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60514_1922892798', 'shareImgUrl': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60514_1922892798?x-oss-process=image/resize,m_fill,w_300,h_300'}, {'id': 808402, 'width': 1080, 'fileName': 'light/freeLivetiming-test_60617_921901946', 'height': 1885, 'isGif': False, 'url': 'http://timingtest-imgservice.kr-cell.com/image/light/freeLivetiming-test_60617_921901946', 'shareImgUrl': 'http://timingtest-imgservice.kr-cell.com/image/light/freeLivetiming-test_60617_921901946?x-oss-process=image/resize,m_fill,w_300,h_300'}], 'learningRecord': None, 'video': None, 'web': None, 'replyList': [], 'topic': {'id': 851, 'name': '啊啊啊啊啊1213', 'type': 1}, 'svlogLabel': [], 'svlogClassification': None, 'originalType': 0, 'weather': {'city': '', 'name': '', 'postTime': ''}}}</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -190,14 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -205,6 +203,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -215,30 +235,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,18 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,6 +288,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -286,20 +306,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,17 +535,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,22 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,6 +590,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,15 +617,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -631,10 +637,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -643,7 +649,7 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -652,116 +658,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1137,22 +1143,22 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="12.7777777777778"/>
+    <col min="2" max="2" customWidth="true" style="1" width="23.3333333333333"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.0"/>
+    <col min="4" max="4" customWidth="true" style="1" width="58.4444444444444"/>
+    <col min="5" max="6" customWidth="true" style="1" width="10.0"/>
+    <col min="7" max="7" customWidth="true" style="1" width="25.6666666666667"/>
+    <col min="8" max="8" customWidth="true" style="1" width="29.8888888888889"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.3333333333333"/>
+    <col min="10" max="10" customWidth="true" style="1" width="10.0"/>
+    <col min="11" max="11" customWidth="true" style="1" width="17.6666666666667"/>
+    <col min="12" max="16384" customWidth="true" style="1" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
@@ -1216,7 +1222,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1274,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>

--- a/src/test/java/com/testng/testdata/test_login.xlsx
+++ b/src/test/java/com/testng/testdata/test_login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>case_id</t>
   </si>
@@ -66,13 +66,13 @@
     <t>{"phone":"10000000185","password":"111111"}</t>
   </si>
   <si>
-    <t>res.status_code==200</t>
-  </si>
-  <si>
-    <t>res.json()['result']==True</t>
-  </si>
-  <si>
-    <t>test2</t>
+    <t>result==true</t>
+  </si>
+  <si>
+    <t>errorMsg==成功</t>
+  </si>
+  <si>
+    <t>{"isMakeFriendInfoSet":true,"birthday":974811355000,"gender":"male","userCategoryID":"528484","isBasicInfoSet":true,"errorCode":0,"farmModeStatus":"none","userID":60556,"categoryTotalDuration":"30638945","showNewGroupGuide":true,"result":true,"avatarInfo":{"isGif":false,"width":720,"id":11259,"url":"http://timingtest-imgservice.kr-cell.com/image/60556_1542805036963_9zibbh67eyqalp6od0m3","height":720},"categoryHasMission":false,"identity":"student","todayLearningTimes":0,"nickname":"10000000185","friendCount":3,"learningState":"none","isNew":false,"avatar":"http://timingtest-imgservice.kr-cell.com/image/60556_1542805036963_9zibbh67eyqalp6od0m3","userKey":"bCOWMeJLd-htmzld1R3o7sNacoTVP-b_","errorMsg":"成功","studentID":"","regTime":1542804954000,"phone":"10000000185","completeGuide":true,"category":{"name":"4级","alias":"4级","id":"108","avatar":""},"noviceGuideStatus":{"friendChat":false,"login":false},"channelID":0}</t>
   </si>
   <si>
     <t>PASS</t>
@@ -87,7 +87,10 @@
     <t>https://www.taobao.com</t>
   </si>
   <si>
-    <t>'www' in res.text</t>
+    <t>包含字符www</t>
+  </si>
+  <si>
+    <t>包含字符a</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -121,20 +124,20 @@
   &lt;style&gt;
   blockquote,body,button,dd,dl,dt,fieldset,form,h1,h2,h3,h4,h5,h6,hr,input,legend,li,ol,p,pre,td,textarea,th,ul{margin:0;padding:0}body,button,input,select,textarea{font:12px/1.5 tahoma,arial,'Hiragino Sans GB','\5b8b\4f53',sans-serif}h1,h2,h3,h4,h5,h6{font-size:100%}address,cite,dfn,em,var{font-style:normal}code,kbd,pre,samp{font-family:courier new,courier,monospace}small{font-size:12px}ol,ul{list-style:none}a{text-decoration:none}a:hover{text-decoration:underline}sup{vertical-align:text-top}sub{vertical-align:text-bottom}legend{color:#000}fieldset,img{border:0}button,input,select,textarea{font-size:100%}button{border-radius:0}table{border-collapse:collapse;border-spacing:0}.site-nav .site-nav-loading{background:url(//img.alicdn.com/tps/i3/T1b1m3XkVpXXXXXXXX-32-32.gif) no-repeat center}@font-face{font-family:global-iconfont;src:url(//at.alicdn.com/t/font_1404888168_2057645.eot);src:url(//at.alicdn.com/t/font_1404888168_2057645.eot?#iefix) format("embedded-opentype"),url(//at.alicdn.com/t/font_1404888168_2057645.woff) format("woff"),url(//at.alicdn.com/t/font_1404888168_2057645.ttf) format("truetype"),url(//at.alicdn.com/t/font_1404888168_2057645.svg#uxiconfont) format("svg")}.site-nav .site-nav-icon{font-family:global-iconfont;font-size:12px;font-style:normal;margin-top:-3px\9;-webkit-font-smoothing:antialiased;-moz-osx-font-smoothing:grayscaleFont type;margin-right:5px;_line-height:33px;color:#9c9c9c}.site-nav .site-nav-menu-hd a:hover .site-nav-icon{color:#f40}.site-nav .site-nav-bd-r .site-nav-icon{width:12px}.site-nav .site-nav-icon-highlight{color:#f40}.site-nav .site-nav-arrow{display:block;float:left;width:12px;height:6px;line-height:6px;overflow:hidden;margin-top:16px}.site-nav .site-nav-arrow .site-nav-icon{display:block;margin-top:-4px;margin-right:20px}.site-nav{z-index:10000;width:100%;background-color:#f5f5f5;border-bottom:1px solid #eee;*zoom:1}.site-nav:after{content:"";display:table;clear:both}.site-nav textarea{display:none}.site-nav .site-nav-bd{margin:0 auto;width:1190px;height:35px;background:#f5f5f5;-webkit-backface-visibility:hidden;*zoom:1}.site-nav .site-nav-bd:after{content:"";display:table;clear:both}.site-nav .site-nav-bd a{color:#3c3c3c}.site-nav .site-nav-bd a:hover{color:#f40;text-decoration:none}.site-nav .site-nav-bd .site-nav-pipe{padding:0 5px;font-style:normal;color:#ddd}.site-nav .site-nav-bd .site-nav-bd-l{float:left;visibility:hidden}.site-nav .site-nav-bd .site-nav-bd-r{float:right}.site-nav .site-nav-bd .site-nav-bd-r .site-nav-pipe{float:left;height:35px;line-height:35px}.site-nav .site-nav-bd .h{color:#f22e00!important}.site-nav .site-nav-bd .site-nav-btn{display:inline-block;vertical-align:middle;*vertical-align:auto;*zoom:1;*display:inline;padding:0 10px;height:25px;line-height:25px;color:#fff;background:#f40;-moz-border-radius:2px;-webkit-border-radius:2px;border-radius:2px}.site-nav .site-nav-bd .site-nav-btn:hover{color:#fff;background:#f40}.site-nav-status-login .site-nav-bd .site-nav-bd-l,.site-nav-status-logout .site-nav-bd .site-nav-bd-l{visibility:visible}.ie-updator-67 .browser-updator{display:none}.site-nav .site-nav-menu{float:left}.site-nav .site-nav-menu .site-nav-menu-hd{z-index:10002;position:relative;padding:0 6px;height:35px;line-height:35px;_display:inline;_zoom:1}.site-nav .site-nav-menu .site-nav-menu-hd a{float:left;margin-right:7px;font-size:12px;color:#6C6C6C}.site-nav .site-nav-menu .site-nav-menu-hd a:hover{color:#F40}.site-nav .site-nav-menu .site-nav-menu-hd a span{float:left;cursor:pointer}.site-nav .site-nav-menu .site-nav-menu-bd{z-index:10001;position:relative;display:none;margin-top:-1px}.site-nav .site-nav-menu .site-nav-menu-bd .site-nav-menu-bd-panel{position:absolute;left:0;top:0;padding:8px;line-height:normal;border:1px solid #EEE;background:#FFF}.site-nav .site-nav-menu .site-nav-menu-bd .site-nav-menu-iframe-shim{z-index:-1;position:absolute;top:0;left:0;border:none;background:0 0;filter:alpha(Opacity=0);opacity:0}.site-nav .site-nav-menu .site-nav-menu-empty .site-nav-menu-hd i{display:none}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel{padding:8px 0}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel a{display:block;padding:0 5px;line-height:28px;white-space:nowrap;color:#6C6C6C}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel a:hover{color:#6C6C6C;background:#F5F5F5}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel a span{margin-left:5px}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel .site-nav-btn{margin:5px 8px 0;color:#FFF;line-height:25px}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel .site-nav-btn:hover{color:#FFF;background:#F40}.site-nav .site-nav-menu-hover .site-nav-menu-hd{padding:0 5px;border-width:0 1px;border-style:solid;border-color:#EEE;background:#FFF}.site-nav .site-nav-menu-hover .site-nav-menu-bd{display:block}.site-nav-cbu-cover{background:#000;width:100%;height:3000px;opacity:.3;filter:alpha(opacity=30);position:fixed;_position:absolute;top:0;z-index:100000000}.site-nav-cbu-cover iframe{position:absolute;top:0;left:0;z-index:-1;filter:mask();width:100%;height:100%}.site-nav-cbu-iframe{width:630px;height:340px;border:0 none;z-index:100000001;position:fixed;_position:absolute;top:25%;left:25%}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-login-info-nick{display:inline-block;max-width:98px;overflow:hidden;text-overflow:ellipsis;white-space:nowrap}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-login-info-nick.super{color:#b6976b}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon{margin-top:12px;width:18px;height:12px;background:url(//img.alicdn.com/tfs/TB1Z_HcQFXXXXc7apXXXXXXXXXX-26-71.png) 0 0 no-repeat;background-size:17px auto}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon.ie8{background-image:url(//img.alicdn.com/tfs/TB1Rr31QVXXXXXrapXXXXXXXXXX-17-46.png)}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon.super{background-position:0 -18px}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon.apass{margin-top:11px;background-position:0 -35px}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-menu-bd-panel{width:248px}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-privilege{display:block;text-align:center;border:1px solid #FFE8DE;background:#FFF0E8;padding:4px 0}.site-nav .site-nav-login .site-nav-menu-bd .tao-score{margin-top:5px}.site-nav .site-nav-login .site-nav-menu-bd .level-info{color:#3c3c3c}.site-nav .site-nav-login .site-nav-menu-bd .level-info.super{color:#c98d46}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-info{height:80px;overflow:hidden;*zoom:1}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-info p{height:20px;line-height:20px;overflow:hidden;*zoom:1}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-info .site-nav-user-operate{text-align:right}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-wrapper{float:left;margin-right:10px;margin-left:9px;width:62px;height:62px;padding:9px;box-sizing:content-box}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-wrapper.super{background:url(//img.alicdn.com/tfs/TB16U6nQFXXXXarXVXXXXXXXXXX-28-28.png) 48px -5px no-repeat}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-wrapper.apass{background:url(//img.alicdn.com/tfs/TB1XKvpQFXXXXaWXVXXXXXXXXXX-28-28.png) 51px -3px no-repeat}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-avatar{display:block;overflow:hidden;border:3px solid #fff;-moz-border-radius:50%;-webkit-border-radius:50%;border-radius:50%}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-avatar img{display:block;width:56px;height:56px}.site-nav-status-logout .site-nav-login .site-nav-menu-bd,.site-nav-status-logout .site-nav-login .site-nav-user{display:none}.site-nav-status-login .site-nav-login .site-nav-sign{display:none}.site-nav .mini-cart .site-nav-menu-bd .site-nav-menu-bd-panel{width:296px;line-height:20px;min-height:40px;background:#fff url(//img.alicdn.com/tps/i3/T1b1m3XkVpXXXXXXXX-32-32.gif) no-repeat 50% 50%}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-ready{background:#fff}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-closed{background:#fff;width:105px}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-hd{padding:10px 0}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd{border-bottom:1px solid #EEE;overflow:hidden;*zoom:1}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd li{margin-bottom:10px;height:40px;overflow:hidden;*zoom:1}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd .mini-cart-img{float:left;margin-right:10px;width:40px;height:40px;display:inline-block;overflow:hidden;text-align:center}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd .mini-cart-img a{display:inline;position:static;line-height:1.5}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd .mini-cart-img a img{vertical-align:middle}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-title{height:20px;overflow:hidden;*zoom:1}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-title a{float:left;width:168px;white-space:nowrap;overflow:hidden;text-overflow:ellipsis}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-info{height:20px;overflow:hidden;*zoom:1;color:#9C9C9C}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-count{float:right}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-count .mini-cart-price{margin-left:5px}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-del{float:right}.site-nav .mini-cart .mini-cart-ft{text-align:right}.site-nav .mini-cart .mini-cart-ft p{margin-top:10px}.site-nav .mini-cart .menu-hd .g-icon{color:#f40}.site-nav .site-nav-sitemap .hot{background:url(//img.alicdn.com/tps/i2/T1hOy5XhNnXXXXXXXX-9-14.gif) no-repeat}.site-nav .site-nav-sitemap .new{background:url(//img.alicdn.com/tps/i3/T1lni5XhXXXXXXXXXX-9-14.gif) no-repeat}.site-nav .site-nav-sitemap .site-nav-menu-bd .site-nav-menu-panel{overflow:hidden;position:absolute;right:0;left:auto;width:988px;min-height:258px;line-height:normal;border:1px solid #eee;background:#fff}.site-nav .site-nav-sitemap .site-nav-sitemap-mod{float:left;width:25%;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap{padding:5px;border-right:1px solid #eee;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap h4{margin:5px;font-size:16px;font-weight:600;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap li{*position:relative;float:left;padding-top:5px;width:30%;height:25px;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a{position:relative;float:left;height:25px;line-height:25px;margin:0 2px;padding:0 8px;-moz-border-radius:2px;-webkit-border-radius:2px;border-radius:2px}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a:after{content:"";display:table;clear:both}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a:hover{color:#fff;background-color:#f50}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a i{position:absolute;top:-5px;right:0;display:block;width:9px;height:14px;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(1) .site-nav-sitemap-mod-wrap a:hover{background-color:#f50}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(2) .site-nav-sitemap-mod-wrap a:hover{background-color:#a0b959}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(3) .site-nav-sitemap-mod-wrap a:hover{background-color:#df61ab}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(4) .site-nav-sitemap-mod-wrap{border-right:none}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(4) .site-nav-sitemap-mod-wrap a:hover{background-color:#52a0e5}.site-nav .tmsg{float:left}.site-nav .tmsg .site-nav-menu .tmsg_icon{_padding-top:9px}.site-nav .tmsg .site-nav-menu .tmsg_loading{margin:-5px 5px 0 0;vertical-align:middle}.site-nav .tmsg .site-nav-menu .tmsg_logo_icon{line-height:0;width:8px;display:inline-block;vertical-align:middle;margin-top:0;*display:inline;_display:inline-block}.site-nav .tmsg .site-nav-menu .tmsg_light-sign,.site-nav .tmsg .site-nav-menu .tmsg_logo{display:none}.site-nav .tmsg_logo_loading{display:inline-block;width:13px}.site-nav .tmsg_logo_area{float:left}.site-nav-status-logout .site-nav-tmsg{display:none}.site-nav .site-nav-weekend img{vertical-align:bottom}.site-nav .site-nav-weekend .site-nav-menu-hd{overflow:hidden}@media (max-width:1009px){.site-nav .site-nav-weekend{display:none!important}}.tb-global-pad-notice{width:100%;height:60px;overflow:hidden;position:relative}.tb-global-pad-notice span{position:absolute;top:10px;right:10px;width:40px;height:40px;background-color:rgba(0,0,0,.3);display:block;line-height:40px;font-size:28px;text-align:center;color:#fff;border-radius:20px;-webkit-font-smoothing:antialiased}.site-nav-at-mobile{border-bottom:none}.site-nav-at-mobile .site-nav-bd{height:40px}.site-nav-at-mobile .site-nav-catalog,.site-nav-at-mobile .site-nav-home,.site-nav-at-mobile .site-nav-mobile,.site-nav-at-mobile .site-nav-seller{display:none}.site-nav-at-mobile .siete-nav-menu .site-nav-menu-hd{height:40px;line-height:40px}.site-nav-at-mobile .siete-nav-menu i{position:relative;-moz-transition:none;-o-transition:none;-webkit-transition:none;transition:none;position:absolute;margin:0;display:none;bottom:-1px;left:40%;width:12px;height:6px}.site-nav-at-mobile .siete-nav-menu i em,.site-nav-at-mobile .siete-nav-menu i span{position:absolute;top:0;left:0;width:0;height:0;border-color:rgba(255,255,255,0);border-color:transparent\9;*border-color:transparent;_border-color:tomato;_filter:chroma(color=tomato);border-style:solid;overflow:hidden;*zoom:1;border-width:0 5px 5px}.site-nav-at-mobile .siete-nav-menu i em{top:-1px;border-bottom-color:#eee}.site-nav-at-mobile .siete-nav-menu i span{border-bottom-color:#fff}.site-nav-at-mobile .site-nav-menu-hover .site-nav-menu-hd i{display:block}.site-nav-at-mobile .site-nav-menu-hover .site-nav-menu-bd{display:block}.site-nav-at-mobile .site-nav-login img{cursor:pointer;margin:2px 0;-moz-border-radius:50%;-webkit-border-radius:50%;border-radius:50%;border:2px solid #fff}.site-nav-at-mobile .site-nav-bd-r .site-nav-pipe{display:none}@media (max-width:1219px){.site-nav-at-mobile .site-nav-bd{width:990px}.site-nav-at-mobile .site-nav-sitemap .mod li{width:33%}}@media (max-width:1009px){.site-nav-at-mobile .site-nav-bd{width:740px}.site-nav-at-mobile .site-nav-guide,.site-nav-at-mobile .site-nav-seller{display:none}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel{width:722px}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel .mod{width:50%}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel .mod li{width:20%}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel .mod-b .mod-wrap{border-right:none}.site-nav-at-mobile .site-nav-weekend{display:none}}.tb-ie-updater-layer{position:absolute;left:0;top:0;bottom:0;right:0;width:100%;height:100%;background-color:#000;filter:alpha(opacity=50);opacity:.5;z-index:99999999}.tb-ie-updater-box{position:absolute;left:50%;top:50%;margin-left:-292px;margin-top:-210px;width:584px;height:420px;background:url(//img.alicdn.com/tps/TB1pH4SLpXXXXXEXVXXXXXXXXXX-584-419.png) no-repeat;z-index:100000000}.tb-ie-updater-box a{position:absolute;text-decoration:none;color:#71a403;font-size:14px;width:130px;height:32px;background-color:#FFF;text-align:center;line-height:32px}.tb-ie-updater-box a:hover{font-weight:700}.tb-ie-updater-google{left:55px;top:107px}.tb-ie-updater-uc{top:107px;left:212px}.site-nav .site-nav-switch .site-nav-region{float:left;margin-right:7px}.site-nav .site-nav-region-list{padding-top:8px;max-height:270px;overflow-y:scroll;border:1px solid #f4f4f4}.site-nav .site-nav-region-list .site-nav-region-item{width:242px;height:29px;line-height:29px;padding-left:8px;cursor:pointer}.site-nav .site-nav-region-list .site-nav-region-item.active,.site-nav .site-nav-region-list .site-nav-region-item:hover{background-color:#f4f4f4}.tmsg_panel_apps,.tmsg_panel_detail,.tmsg_panel_history,.tmsg_panel_setting{width:288px;border-top:0;position:absolute;background:#FFF;box-shadow:1px 1px 2px #ddd;z-index:10000000000}.tmsg_panel_head{height:37px;line-height:37px;position:relative;text-align:center;border-bottom:1px solid #EEE}.tmsg_panel_foot{height:32px;border-top:1px solid #EEE;position:relative}
   &lt;/style&gt;
-  &lt;link rel="stylesheet" href="//g.alicdn.com/??tbhome/taobao-2021/0.0.20/lib/style/page-min.css,tbhome/taobao-2021/0.0.20/lib/style/index-min.css"&gt;
+  &lt;link rel="stylesheet" href="//g.alicdn.com/??tbhome/taobao-2021/0.0.26/lib/style/page-min.css,tbhome/taobao-2021/0.0.26/lib/style/index-min.css"&gt;
   &lt;link rel="stylesheet" href="//g.alicdn.com/main-search/new-search-suggest/0.0.2/bundle.css"&gt;
   &lt;script&gt;
     window.cdnHost = "g.alicdn.com";
-    window.staticConfig = {"shop":{},"superbanner":{},"focus":[{"imgUrl":"https://img.alicdn.com/tfs/TB1E1aHWoH1gK0jSZSyXXXtlpXa-160-280.jpg","trackinfo":"{\"expose\":{\"lygImp\":\"1\",\"lyg\":\"10276.lyg_hcjh_0_0.4663.0.lygSuper;59958.lyg_flowplatform_-1_161.82146.4888\",\"impid\":\"07cd5fb1-a158-4758-88c6-75e355d241ad\"},\"click\":{\"lygImp\":\"1\",\"lyg\":\"10276.lyg_hcjh_0_0.4663.0.lygSuper;59958.lyg_flowplatform_-1_161.82146.4888\",\"impid\":\"07cd5fb1-a158-4758-88c6-75e355d241ad\"}}","distinctId":"15996000134011","code":"63438","dataSetId":14992744,"name":"天猫-服饰-内衣","id":"0","targetUrl":"https://neiyi.tmall.com/?spm=875.7931836/B.category2016010.2.66144265NvDhb3&amp;acm=lb-zebra-148799-667863.1003.4.708026&amp;scm=1003.4.lb-zebra-148799-667863.OTHER_14561681423980_708026","__pos__":1,"__track__":"14807860.14807860.17120207.2.1"}],"decorations":{},"injectAfter":[],"mytao":{"footmark":"https://www.taobao.com/markets/footmark/tbfoot","distinctId":"1632024095480","collectshop":"https://shoucang.taobao.com/shop_collect_list_n.htm","dataSetId":20475805,"sellshop":"https://favorite.taobao.com/list_bought_shops_n.htm","id":"1632024095480","collect":"https://shoucang.taobao.com/item_collect.htm","__pos__":1,"__track__":"19752936.19752936.23006477.2.1"},"fixedtool":{"moduleinfo":{"feedback":"false","distinctId":"15917324023721","dataSetId":14992859,"feedbackVersion":"0.1.33","id":"15917324023721","__pos__":1,"__track__":"14809065.14809065.17120312.2.1"},"distinctId":"15917323898931","controls":[{"distinctId":"15917324753291","dataSetId":14992862,"left":"false","id":"15917324753291","__pos__":1,"__track__":"14809063.14809063.17120315.2.1"}],"nouse":"","dataSetId":14992832,"id":"15917323898931","tools":[{"distinctId":"15917324556931","dataSetId":14992861,"name":"品质&lt;br&gt;好货","index":"1","clickme":"false","id":"15917324556931","url":"","tool":"goods","__pos__":1,"__track__":"14809066.14809066.17120314.2.1"},{"distinctId":"15917309166975","dataSetId":14992861,"name":"猜你&lt;br&gt;喜欢","index":"6","clickme":"false","id":"15917309166975","url":"","tool":"hotsale","__pos__":2,"__track__":"14809066.14809066.17120314.2.2"},{"distinctId":"15917305319486","dataSetId":14992861,"name":"&lt;i class=tb-ifont&gt;&lt;/i&gt;顶部","index":"7","clickme":"false","id":"15917305319486","url":"","tool":"gotop","__pos__":3,"__track__":"14809066.14809066.17120314.2.3"},{"distinctId":"15917316861957","dataSetId":14992861,"name":"&lt;i&gt;反馈&lt;/i&gt;","index":"8","clickme":"false","id":"15917316861957","url":"http://survey.taobao.com/survey/kgsa2JZE2","tool":"","__pos__":4,"__track__":"14809066.14809066.17120314.2.4"},{"distinctId":"15917313014468","dataSetId":14992861,"name":"暴恐&lt;br&gt;举报","index":"9","clickme":"false","id":"15917313014468","url":"https://www.12377.cn/","tool":"","__pos__":5,"__track__":"14809066.14809066.17120314.2.5"}],"__pos__":1,"__track__":"14818794.14818794.17120285.2.1","switch":[{"distinctId":"15917324190571","dataSetId":14992860,"id":"15917324190571","__pos__":1,"__track__":"14809064.14809064.17120313.2.1","on":"true"}]},"promo":[{"dtP":"false","tanx":"false","backup":"true","img":"https://img.alicdn.com/tfs/TB1FjZ7VWL7gK0jSZFBXXXZZpXa-520-280.png","chance":"","isope":"false","dt":"true","distinctId":"15917296549741","dataSetId":14992733,"id":"20140506001","href":"https://yao.tmall.com/?spm=875.7931836/B.2016004.6.66144265jDNE35&amp;acm=lb-zebra-148799-667861.1003.4.2429983&amp;scm=1003.4.lb-zebra-148799-667861.OTHER_14561829993617_2429983","text":"","tag":"false","__pos__":1,"__track__":"14812932.14812932.17120196.2.1"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917294443522","dataSetId":14992733,"id":"mm_12852562_1778064_13670999","href":"http://www.taobao.com","text":"","tag":"false","__pos__":2,"__track__":"14812932.14812932.17120196.2.2"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917305985993","dataSetId":14992733,"id":"mm_12852562_1778064_13674396","href":"http://www.taobao.com","text":"","tag":"false","__pos__":3,"__track__":"14812932.14812932.17120196.2.3"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917302138514","dataSetId":14992733,"id":"mm_12852562_1778064_13672849","href":"http://www.taobao.com","text":"","tag":"false","__pos__":4,"__track__":"14812932.14812932.17120196.2.4"},{"dtP":"false","tanx":"false","backup":"true","img":"https://img.alicdn.com/tfs/TB1wOidVWL7gK0jSZFBXXXZZpXa-520-280.jpg","chance":"","isope":"false","dt":"true","distinctId":"15917282901085","dataSetId":14992733,"id":"20140506002","href":"https://pages.tmall.com/wow/a/act/tmall/dailygroup/1376/wupr?wh_pid=daily-187090","text":"","tag":"false","__pos__":5,"__track__":"14812932.14812932.17120196.2.5"}],"search":{"distinctId":"15917278587291","nouse":"","dataSetId":14992732,"itemLabels":[{"distinctId":"15917279248231","dataSetId":14992790,"query":"手持式洗衣机","holder":"随身携带的洗衣机。好腻害的样子( ⊙ o ⊙ )啊！","id":"15917279248231","__pos__":1,"__track__":"14809020.14809020.17120251.2.1"},{"distinctId":"15917275400742","dataSetId":14992790,"query":"电子鼓","holder":"听说在家打鼓也不怕被投诉啦","id":"15917275400742","__pos__":2,"__track__":"14809020.14809020.17120251.2.2"},{"distinctId":"15917286943203","dataSetId":14992790,"query":"叠衣板","holder":"懒人必备叠衣板哟哟哟，切克闹~","id":"15917286943203","__pos__":3,"__track__":"14809020.14809020.17120251.2.3"}],"shopLabels":[],"fline":[{"distinctId":"15917279910541","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=连衣裙&amp;refpid=420460_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f66","text":"新款连衣裙","id":"15917279910541","__pos__":1,"__track__":"14809018.14809018.17120252.2.1","enhance":"false"},{"distinctId":"15917276063052","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=四件套&amp;refpid=420461_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"四件套","id":"15917276063052","__pos__":2,"__track__":"14809018.14809018.17120252.2.2","enhance":"false"},{"distinctId":"15917287605513","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=T恤&amp;refpid=420462_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"潮流T恤","id":"15917287605513","__pos__":3,"__track__":"14809018.14809018.17120252.2.3","enhance":"true"},{"distinctId":"15917283758024","dataSetId":14992791,"link":"https://s.taobao.com/search?q=%E5%A5%B3%E9%9E%8B&amp;refpid=420466_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f68","text":"时尚女鞋","id":"15917283758024","__pos__":4,"__track__":"14809018.14809018.17120252.2.4","enhance":"false"},{"distinctId":"15917264520585","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=短裤&amp;refpid=430145_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"短裤","id":"15917264520585","__pos__":5,"__track__":"14809018.14809018.17120252.2.5","enhance":"false"},{"distinctId":"15917260673096","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=半身裙&amp;refpid=430146_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"半身裙","id":"15917260673096","__pos__":6,"__track__":"14809018.14809018.17120252.2.6","enhance":"false"},{"distinctId":"15917272215567","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=男士外套&amp;refpid=430147_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"男士外套","id":"15917272215567","__pos__":7,"__track__":"14809018.14809018.17120252.2.7","enhance":"false"},{"distinctId":"15917268368078","dataSetId":14992791,"link":"https://s.taobao.com/search?q=墙纸&amp;refpid=430148_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"墙纸","id":"15917268368078","__pos__":8,"__track__":"14809018.14809018.17120252.2.8","enhance":"false"},{"distinctId":"15917249130629","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=行车记录仪&amp;refpid=420467_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"行车记录仪","id":"15917249130629","__pos__":9,"__track__":"14809018.14809018.17120252.2.9","enhance":"false"},{"distinctId":"159172452831310","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=男鞋&amp;refpid=430144_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"新</t>
+    window.staticConfig = {"shop":{},"superbanner":{},"focus":[{"imgUrl":"https://img.alicdn.com/tfs/TB1E1aHWoH1gK0jSZSyXXXtlpXa-160-280.jpg","trackinfo":"{\"expose\":{\"lygImp\":\"1\",\"lyg\":\"10276.lyg_hcjh_0_0.4663.0.lygSuper;59958.lyg_flowplatform_-1_161.82146.4888\",\"impid\":\"07cd5fb1-a158-4758-88c6-75e355d241ad\"},\"click\":{\"lygImp\":\"1\",\"lyg\":\"10276.lyg_hcjh_0_0.4663.0.lygSuper;59958.lyg_flowplatform_-1_161.82146.4888\",\"impid\":\"07cd5fb1-a158-4758-88c6-75e355d241ad\"}}","distinctId":"15996000134011","code":"63438","dataSetId":14992744,"name":"天猫-服饰-内衣","id":"0","targetUrl":"https://neiyi.tmall.com/?spm=875.7931836/B.category2016010.2.66144265NvDhb3&amp;acm=lb-zebra-148799-667863.1003.4.708026&amp;scm=1003.4.lb-zebra-148799-667863.OTHER_14561681423980_708026","__pos__":1,"__track__":"14807860.14807860.17120207.2.1"}],"decorations":{},"injectAfter":[],"mytao":{"footmark":"https://www.taobao.com/markets/footmark/tbfoot","distinctId":"1632024095480","collectshop":"https://shoucang.taobao.com/shop_collect_list_n.htm","dataSetId":20475805,"sellshop":"https://favorite.taobao.com/list_bought_shops_n.htm","id":"1632024095480","collect":"https://shoucang.taobao.com/item_collect.htm","__pos__":1,"__track__":"19752936.19752936.23006477.2.1"},"fixedtool":{"moduleinfo":{"feedback":"false","distinctId":"15917324023721","dataSetId":14992859,"feedbackVersion":"0.1.33","id":"15917324023721","__pos__":1,"__track__":"14809065.14809065.17120312.2.1"},"distinctId":"15917323898931","controls":[{"distinctId":"15917324753291","dataSetId":14992862,"left":"false","id":"15917324753291","__pos__":1,"__track__":"14809063.14809063.17120315.2.1"}],"nouse":"","dataSetId":14992832,"id":"15917323898931","tools":[{"distinctId":"15917324556931","dataSetId":14992861,"name":"品质&lt;br&gt;好货","index":"1","clickme":"false","id":"15917324556931","url":"","tool":"goods","__pos__":1,"__track__":"14809066.14809066.17120314.2.1"},{"distinctId":"15917309166975","dataSetId":14992861,"name":"猜你&lt;br&gt;喜欢","index":"6","clickme":"false","id":"15917309166975","url":"","tool":"hotsale","__pos__":2,"__track__":"14809066.14809066.17120314.2.2"},{"distinctId":"15917305319486","dataSetId":14992861,"name":"&lt;i class=tb-ifont&gt;&lt;/i&gt;顶部","index":"7","clickme":"false","id":"15917305319486","url":"","tool":"gotop","__pos__":3,"__track__":"14809066.14809066.17120314.2.3"},{"distinctId":"15917316861957","dataSetId":14992861,"name":"&lt;i&gt;反馈&lt;/i&gt;","index":"8","clickme":"false","id":"15917316861957","url":"http://survey.taobao.com/survey/kgsa2JZE2","tool":"","__pos__":4,"__track__":"14809066.14809066.17120314.2.4"},{"distinctId":"15917313014468","dataSetId":14992861,"name":"暴恐&lt;br&gt;举报","index":"9","clickme":"false","id":"15917313014468","url":"https://www.12377.cn/","tool":"","__pos__":5,"__track__":"14809066.14809066.17120314.2.5"}],"__pos__":1,"__track__":"14818794.14818794.17120285.2.1","switch":[{"distinctId":"15917324190571","dataSetId":14992860,"id":"15917324190571","__pos__":1,"__track__":"14809064.14809064.17120313.2.1","on":"true"}]},"promo":[{"dtP":"false","tanx":"false","backup":"true","img":"https://img.alicdn.com/tfs/TB1FjZ7VWL7gK0jSZFBXXXZZpXa-520-280.png","chance":"","isope":"false","dt":"true","distinctId":"15917296549741","dataSetId":14992733,"id":"20140506001","href":"https://yao.tmall.com/?spm=875.7931836/B.2016004.6.66144265jDNE35&amp;acm=lb-zebra-148799-667861.1003.4.2429983&amp;scm=1003.4.lb-zebra-148799-667861.OTHER_14561829993617_2429983","text":"","tag":"false","__pos__":1,"__track__":"14812932.14812932.17120196.2.1"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917294443522","dataSetId":14992733,"id":"mm_12852562_1778064_13670999","href":"http://www.taobao.com","text":"","tag":"false","__pos__":2,"__track__":"14812932.14812932.17120196.2.2"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917305985993","dataSetId":14992733,"id":"mm_12852562_1778064_13674396","href":"http://www.taobao.com","text":"","tag":"false","__pos__":3,"__track__":"14812932.14812932.17120196.2.3"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917302138514","dataSetId":14992733,"id":"mm_12852562_1778064_13672849","href":"http://www.taobao.com","text":"","tag":"false","__pos__":4,"__track__":"14812932.14812932.17120196.2.4"},{"dtP":"false","tanx":"false","backup":"true","img":"https://img.alicdn.com/tfs/TB1wOidVWL7gK0jSZFBXXXZZpXa-520-280.jpg","chance":"","isope":"false","dt":"true","distinctId":"15917282901085","dataSetId":14992733,"id":"20140506002","href":"https://pages.tmall.com/wow/a/act/tmall/dailygroup/1376/wupr?wh_pid=daily-187090","text":"","tag":"false","__pos__":5,"__track__":"14812932.14812932.17120196.2.5"}],"search":{"distinctId":"15917278587291","nouse":"","dataSetId":14992732,"itemLabels":[{"distinctId":"15917279248231","dataSetId":14992790,"query":"手持式洗衣机","holder":"随身携带的洗衣机。好腻害的样子( ⊙ o ⊙ )啊！","id":"15917279248231","__pos__":1,"__track__":"14809020.14809020.17120251.2.1"},{"distinctId":"15917275400742","dataSetId":14992790,"query":"电子鼓","holder":"听说在家打鼓也不怕被投诉啦","id":"15917275400742","__pos__":2,"__track__":"14809020.14809020.17120251.2.2"},{"distinctId":"15917286943203","dataSetId":14992790,"query":"叠衣板","holder":"懒人必备叠衣板哟哟哟，切克闹~","id":"15917286943203","__pos__":3,"__track__":"14809020.14809020.17120251.2.3"}],"shopLabels":[],"fline":[{"distinctId":"15917279910541","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=连衣裙&amp;refpid=420460_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f66","text":"新款连衣裙","id":"15917279910541","__pos__":1,"__track__":"14809018.14809018.17120252.2.1","enhance":"false"},{"distinctId":"15917276063052","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=四件套&amp;refpid=420461_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"四件套","id":"15917276063052","__pos__":2,"__track__":"14809018.14809018.17120252.2.2","enhance":"false"},{"distinctId":"15917287605513","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=T恤&amp;refpid=420462_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"潮流T恤","id":"15917287605513","__pos__":3,"__track__":"14809018.14809018.17120252.2.3","enhance":"true"},{"distinctId":"15917283758024","dataSetId":14992791,"link":"https://s.taobao.com/search?q=%E5%A5%B3%E9%9E%8B&amp;refpid=420466_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f68","text":"时尚女鞋","id":"15917283758024","__pos__":4,"__track__":"14809018.14809018.17120252.2.4","enhance":"false"},{"distinctId":"15917264520585","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=短裤&amp;refpid=430145_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"短裤","id":"15917264520585","__pos__":5,"__track__":"14809018.14809018.17120252.2.5","enhance":"false"},{"distinctId":"15917260673096","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=半身裙&amp;refpid=430146_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"半身裙","id":"15917260673096","__pos__":6,"__track__":"14809018.14809018.17120252.2.6","enhance":"false"},{"distinctId":"15917272215567","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=男士外套&amp;refpid=430147_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"男士外套","id":"15917272215567","__pos__":7,"__track__":"14809018.14809018.17120252.2.7","enhance":"false"},{"distinctId":"15917268368078","dataSetId":14992791,"link":"https://s.taobao.com/search?q=墙纸&amp;refpid=430148_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"墙纸","id":"15917268368078","__pos__":8,"__track__":"14809018.14809018.17120252.2.8","enhance":"false"},{"distinctId":"15917249130629","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=行车记录仪&amp;refpid=420467_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"行车记录仪","id":"15917249130629","__pos__":9,"__track__":"14809018.14809018.17120252.2.9","enhance":"false"},{"distinctId":"159172452831310","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=男鞋&amp;refpid=430144_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"新款男鞋","id":"159172452831310","__pos__":10,"__track__":"14809018.14809018.17120252.2.10","enhance":"false"},{"distinctId":"159172568256011","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=耳机&amp;refpid=420463_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"耳机","id":"159172568256011","__pos__":11,"__track__":"14809018.14809018.17120252.2.11","enhance":"false"},{"distinctId":"159172529781112","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=女包&amp;refpid=420464_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f68","text":"时尚女包","id":"159172529781112","__pos__":12,"__track__":"14809018.14809018.17120252.2.12","enhance":"false"},{"distinctId":"159172337406713","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=沙发&amp;refpid=420465_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f68","text":"沙发","id":"159172337406713","__pos__":13,"__track__":"14809018.14809018.17120252.2.13","enhance":"false"}],"id":"15917278587291","__pos__":1,"__track__":"14814902.14814902.17120195.2.1","switch":[{"distinctId":"15917278686371","dataSetId":14992789,"showHotWord":"true","id":"15917278686371","__pos__":1,"__track__":"14809021.14809021.17120250.2.1"}]},"pageConfig":{"abtest":[{"bucket":"0","distinctId":"15917328227921","dataSetId":14992898,"id":"15917328227921","__pos__":1,"__track__":"14809101.14809101.17120351.2.1","on":"true"}],"distinctId":"15917327926581","nouse":"","dataSetId":14992856,"id":"15917327926581","list":[{"autoStop":"true","distinctId":"15917328076491","showSidebar":"false","dataSetId":14992897,"pwa":"false","id":"15917328076491","__pos__":1,"__track__":"14809102.14809102.17120350.2.1"}],"__pos__":1,"__track__":"14816794.14816794.17120309.2.1"},"corner":[{"path":"/mm/tb-page-peel/0.0.5/index","distinctId":"15917326980531","dataSetId":14992836,"id":"15917326980531","title":"","__pos__":1,"__track__":"14798087.14798087.17120289.2.1","on":"true"}],"helper":[{"distinctId":"15917325374381","dataSetId":14992835,"name":"消费者保障","icon":"xe619","id":"15917325374381","items":[{"distinctId":"15917325572531","dataSetId":14992863,"link":"https://rule.taobao.com/detail-1690.htm?spm=a217</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>{"phone":"10000000186","password":"111112"}</t>
   </si>
   <si>
-    <t>{'result': True, 'feed': {'id': 5657642, 'author': {'id': 60554, 'nickname': '10000000182', 'avatarFile': 'timing-test_60554_1561194874972_0l9uh2s4rie53enl2sod', 'avatarID': '441116', 'gender': 'female', 'birthday': 978278400000, 'avatar': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60554_1561194874972_0l9uh2s4rie53enl2sod', 'department': '76', 'categoryAlias': '高考/艺考', 'categoryID': '24', 'categoryIDs': '24,7178', 'regTime': '2018-11-21 09:54:13', 'type': 'normal', 'isOfficial': False, 'disabled': False, 'fansCount': 15, 'followUserCount': 34, 'isVerify': False, 'authenticationInfo': None, 'statusInfo': {'type': 1, 'startTime': 1630467342000, 'learningData': None}, 'accountType': 0, 'timingID': 243712457}, 'content': 'test', 'type': 3, 'replyCount': None, 'likeCount': None, 'isLike': False, 'isAd': False, 'postTime': 1649297539000, 'tagList': [], 'imageList': [{'id': 808401, 'width': 1080, 'fileName': 'timing-test_60514_1922892798', 'height': 2340, 'isGif': False, 'url': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60514_1922892798', 'shareImgUrl': 'http://timingtest-imgservice.kr-cell.com/image/timing-test_60514_1922892798?x-oss-process=image/resize,m_fill,w_300,h_300'}, {'id': 808402, 'width': 1080, 'fileName': 'light/freeLivetiming-test_60617_921901946', 'height': 1885, 'isGif': False, 'url': 'http://timingtest-imgservice.kr-cell.com/image/light/freeLivetiming-test_60617_921901946', 'shareImgUrl': 'http://timingtest-imgservice.kr-cell.com/image/light/freeLivetiming-test_60617_921901946?x-oss-process=image/resize,m_fill,w_300,h_300'}], 'learningRecord': None, 'video': None, 'web': None, 'replyList': [], 'topic': {'id': 851, 'name': '啊啊啊啊啊1213', 'type': 1}, 'svlogLabel': [], 'svlogClassification': None, 'originalType': 0, 'weather': {'city': '', 'name': '', 'postTime': ''}}}</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>{"result":false,"errorCode":960002,"errorMsg":"账号密码不匹配,请重试"}</t>
   </si>
 </sst>
 </file>
@@ -142,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -170,41 +173,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,32 +208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,9 +223,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +269,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -295,17 +292,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,25 +329,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,151 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +520,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,26 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +577,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -603,17 +610,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -637,19 +640,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -658,116 +661,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -788,9 +791,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1142,23 +1142,23 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="12.7777777777778"/>
-    <col min="2" max="2" customWidth="true" style="1" width="23.3333333333333"/>
-    <col min="3" max="3" customWidth="true" style="1" width="10.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="58.4444444444444"/>
-    <col min="5" max="6" customWidth="true" style="1" width="10.0"/>
-    <col min="7" max="7" customWidth="true" style="1" width="25.6666666666667"/>
-    <col min="8" max="8" customWidth="true" style="1" width="29.8888888888889"/>
-    <col min="9" max="9" customWidth="true" style="1" width="18.3333333333333"/>
-    <col min="10" max="10" customWidth="true" style="1" width="10.0"/>
-    <col min="11" max="11" customWidth="true" style="1" width="17.6666666666667"/>
-    <col min="12" max="16384" customWidth="true" style="1" width="10.0"/>
+    <col min="1" max="1" width="12.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.8888888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
@@ -1222,7 +1222,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1242,16 +1242,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
@@ -1271,7 +1271,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
@@ -1280,10 +1280,10 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/testng/testdata/test_login.xlsx
+++ b/src/test/java/com/testng/testdata/test_login.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>case_id</t>
   </si>
@@ -139,16 +139,59 @@
   <si>
     <t>{"result":false,"errorCode":960002,"errorMsg":"账号密码不匹配,请重试"}</t>
   </si>
+  <si>
+    <t>{"isMakeFriendInfoSet":true,"birthday":974811355000,"gender":"male","userCategoryID":"528484","isBasicInfoSet":true,"errorCode":0,"farmModeStatus":"none","userID":60556,"categoryTotalDuration":"30638945","showNewGroupGuide":true,"result":true,"avatarInfo":{"isGif":false,"width":720,"id":11259,"url":"http://timingtest-imgservice.kr-cell.com/image/60556_1542805036963_9zibbh67eyqalp6od0m3","height":720},"categoryHasMission":false,"identity":"student","todayLearningTimes":0,"nickname":"10000000185","friendCount":3,"learningState":"none","isNew":false,"avatar":"http://timingtest-imgservice.kr-cell.com/image/60556_1542805036963_9zibbh67eyqalp6od0m3","userKey":"74ifQB1LLHBMDY-R_KzmDtmvNVd7c17k","errorMsg":"成功","studentID":"","regTime":1542804954000,"phone":"10000000185","completeGuide":true,"category":{"name":"4级","alias":"4级","id":"108","avatar":""},"noviceGuideStatus":{"friendChat":false,"login":false},"channelID":0}</t>
+  </si>
+  <si>
+    <t>{"isMakeFriendInfoSet":true,"birthday":974811355000,"gender":"male","userCategoryID":"528484","isBasicInfoSet":true,"errorCode":0,"farmModeStatus":"none","userID":60556,"categoryTotalDuration":"30638945","showNewGroupGuide":true,"result":true,"avatarInfo":{"isGif":false,"width":720,"id":11259,"url":"http://timingtest-imgservice.kr-cell.com/image/60556_1542805036963_9zibbh67eyqalp6od0m3","height":720},"categoryHasMission":false,"identity":"student","todayLearningTimes":0,"nickname":"10000000185","friendCount":3,"learningState":"none","isNew":false,"avatar":"http://timingtest-imgservice.kr-cell.com/image/60556_1542805036963_9zibbh67eyqalp6od0m3","userKey":"UE6DmzJW59aS0NLml_iDVFr7D3zP7CXu","errorMsg":"成功","studentID":"","regTime":1542804954000,"phone":"10000000185","completeGuide":true,"category":{"name":"4级","alias":"4级","id":"108","avatar":""},"noviceGuideStatus":{"friendChat":false,"login":false},"channelID":0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;!DOCTYPE html&gt;
+&lt;html lang="zh-CN"&gt;
+&lt;head&gt;
+  &lt;meta charset="utf-8" /&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge,chrome=1" /&gt;
+  &lt;meta name="renderer" content="webkit" /&gt;
+  &lt;title&gt;淘宝网 - 淘！我喜欢&lt;/title&gt;
+  &lt;meta name="spm-id" content="a21bo" /&gt;
+  &lt;meta name="description" content="淘宝网 - 亚洲较大的网上交易平台，提供各类服饰、美容、家居、数码、话费/点卡充值… 数亿优质商品，同时提供担保交易(先收货后付款)等安全交易保障服务，并由商家提供退货承诺、破损补寄等消费者保障服务，让你安心享受网上购物乐趣！" /&gt;
+  &lt;meta name="aplus-xplug" content="NONE"&gt;
+  &lt;meta name="keyword" content="淘宝,掏宝,网上购物,C2C,在线交易,交易市场,网上交易,交易市场,网上买,网上卖,购物网站,团购,网上贸易,安全购物,电子商务,放心买,供应,买卖信息,网店,一口价,拍卖,网上开店,网络购物,打折,免费开店,网购,频道,店铺" /&gt;
+  &lt;link rel="dns-prefetch" href="//g.alicdn.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//img.alicdn.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//tce.alicdn.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//gm.mmstat.com" /&gt;
+  &lt;link ref="dns-prefetch" href="//tce.taobao.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//log.mmstat.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//tui.taobao.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//ald.taobao.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//gw.alicdn.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//atanx.alicdn.com"/&gt;
+  &lt;link rel="dns-prefetch" href="//dfhs.tanx.com"/&gt;
+  &lt;link rel="dns-prefetch" href="//ecpm.tanx.com" /&gt;
+  &lt;link rel="dns-prefetch" href="//res.mmstat.com" /&gt;
+  &lt;link href="//img.alicdn.com/tps/i3/T1OjaVFl4dXXa.JOZB-114-114.png" rel="apple-touch-icon-precomposed" /&gt;
+  &lt;meta name="def-grey" content="false" /&gt;
+  &lt;style&gt;
+  blockquote,body,button,dd,dl,dt,fieldset,form,h1,h2,h3,h4,h5,h6,hr,input,legend,li,ol,p,pre,td,textarea,th,ul{margin:0;padding:0}body,button,input,select,textarea{font:12px/1.5 tahoma,arial,'Hiragino Sans GB','\5b8b\4f53',sans-serif}h1,h2,h3,h4,h5,h6{font-size:100%}address,cite,dfn,em,var{font-style:normal}code,kbd,pre,samp{font-family:courier new,courier,monospace}small{font-size:12px}ol,ul{list-style:none}a{text-decoration:none}a:hover{text-decoration:underline}sup{vertical-align:text-top}sub{vertical-align:text-bottom}legend{color:#000}fieldset,img{border:0}button,input,select,textarea{font-size:100%}button{border-radius:0}table{border-collapse:collapse;border-spacing:0}.site-nav .site-nav-loading{background:url(//img.alicdn.com/tps/i3/T1b1m3XkVpXXXXXXXX-32-32.gif) no-repeat center}@font-face{font-family:global-iconfont;src:url(//at.alicdn.com/t/font_1404888168_2057645.eot);src:url(//at.alicdn.com/t/font_1404888168_2057645.eot?#iefix) format("embedded-opentype"),url(//at.alicdn.com/t/font_1404888168_2057645.woff) format("woff"),url(//at.alicdn.com/t/font_1404888168_2057645.ttf) format("truetype"),url(//at.alicdn.com/t/font_1404888168_2057645.svg#uxiconfont) format("svg")}.site-nav .site-nav-icon{font-family:global-iconfont;font-size:12px;font-style:normal;margin-top:-3px\9;-webkit-font-smoothing:antialiased;-moz-osx-font-smoothing:grayscaleFont type;margin-right:5px;_line-height:33px;color:#9c9c9c}.site-nav .site-nav-menu-hd a:hover .site-nav-icon{color:#f40}.site-nav .site-nav-bd-r .site-nav-icon{width:12px}.site-nav .site-nav-icon-highlight{color:#f40}.site-nav .site-nav-arrow{display:block;float:left;width:12px;height:6px;line-height:6px;overflow:hidden;margin-top:16px}.site-nav .site-nav-arrow .site-nav-icon{display:block;margin-top:-4px;margin-right:20px}.site-nav{z-index:10000;width:100%;background-color:#f5f5f5;border-bottom:1px solid #eee;*zoom:1}.site-nav:after{content:"";display:table;clear:both}.site-nav textarea{display:none}.site-nav .site-nav-bd{margin:0 auto;width:1190px;height:35px;background:#f5f5f5;-webkit-backface-visibility:hidden;*zoom:1}.site-nav .site-nav-bd:after{content:"";display:table;clear:both}.site-nav .site-nav-bd a{color:#3c3c3c}.site-nav .site-nav-bd a:hover{color:#f40;text-decoration:none}.site-nav .site-nav-bd .site-nav-pipe{padding:0 5px;font-style:normal;color:#ddd}.site-nav .site-nav-bd .site-nav-bd-l{float:left;visibility:hidden}.site-nav .site-nav-bd .site-nav-bd-r{float:right}.site-nav .site-nav-bd .site-nav-bd-r .site-nav-pipe{float:left;height:35px;line-height:35px}.site-nav .site-nav-bd .h{color:#f22e00!important}.site-nav .site-nav-bd .site-nav-btn{display:inline-block;vertical-align:middle;*vertical-align:auto;*zoom:1;*display:inline;padding:0 10px;height:25px;line-height:25px;color:#fff;background:#f40;-moz-border-radius:2px;-webkit-border-radius:2px;border-radius:2px}.site-nav .site-nav-bd .site-nav-btn:hover{color:#fff;background:#f40}.site-nav-status-login .site-nav-bd .site-nav-bd-l,.site-nav-status-logout .site-nav-bd .site-nav-bd-l{visibility:visible}.ie-updator-67 .browser-updator{display:none}.site-nav .site-nav-menu{float:left}.site-nav .site-nav-menu .site-nav-menu-hd{z-index:10002;position:relative;padding:0 6px;height:35px;line-height:35px;_display:inline;_zoom:1}.site-nav .site-nav-menu .site-nav-menu-hd a{float:left;margin-right:7px;font-size:12px;color:#6C6C6C}.site-nav .site-nav-menu .site-nav-menu-hd a:hover{color:#F40}.site-nav .site-nav-menu .site-nav-menu-hd a span{float:left;cursor:pointer}.site-nav .site-nav-menu .site-nav-menu-bd{z-index:10001;position:relative;display:none;margin-top:-1px}.site-nav .site-nav-menu .site-nav-menu-bd .site-nav-menu-bd-panel{position:absolute;left:0;top:0;padding:8px;line-height:normal;border:1px solid #EEE;background:#FFF}.site-nav .site-nav-menu .site-nav-menu-bd .site-nav-menu-iframe-shim{z-index:-1;position:absolute;top:0;left:0;border:none;background:0 0;filter:alpha(Opacity=0);opacity:0}.site-nav .site-nav-menu .site-nav-menu-empty .site-nav-menu-hd i{display:none}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel{padding:8px 0}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel a{display:block;padding:0 5px;line-height:28px;white-space:nowrap;color:#6C6C6C}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel a:hover{color:#6C6C6C;background:#F5F5F5}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel a span{margin-left:5px}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel .site-nav-btn{margin:5px 8px 0;color:#FFF;line-height:25px}.site-nav .site-nav-menu .site-nav-menu-list .site-nav-menu-bd-panel .site-nav-btn:hover{color:#FFF;background:#F40}.site-nav .site-nav-menu-hover .site-nav-menu-hd{padding:0 5px;border-width:0 1px;border-style:solid;border-color:#EEE;background:#FFF}.site-nav .site-nav-menu-hover .site-nav-menu-bd{display:block}.site-nav-cbu-cover{background:#000;width:100%;height:3000px;opacity:.3;filter:alpha(opacity=30);position:fixed;_position:absolute;top:0;z-index:100000000}.site-nav-cbu-cover iframe{position:absolute;top:0;left:0;z-index:-1;filter:mask();width:100%;height:100%}.site-nav-cbu-iframe{width:630px;height:340px;border:0 none;z-index:100000001;position:fixed;_position:absolute;top:25%;left:25%}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-login-info-nick{display:inline-block;max-width:98px;overflow:hidden;text-overflow:ellipsis;white-space:nowrap}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-login-info-nick.super{color:#b6976b}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon{margin-top:12px;width:18px;height:12px;background:url(//img.alicdn.com/tfs/TB1Z_HcQFXXXXc7apXXXXXXXXXX-26-71.png) 0 0 no-repeat;background-size:17px auto}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon.ie8{background-image:url(//img.alicdn.com/tfs/TB1Rr31QVXXXXXrapXXXXXXXXXX-17-46.png)}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon.super{background-position:0 -18px}.site-nav .site-nav-login .site-nav-menu-hd .site-nav-vip-icon.apass{margin-top:11px;background-position:0 -35px}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-menu-bd-panel{width:248px}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-privilege{display:block;text-align:center;border:1px solid #FFE8DE;background:#FFF0E8;padding:4px 0}.site-nav .site-nav-login .site-nav-menu-bd .tao-score{margin-top:5px}.site-nav .site-nav-login .site-nav-menu-bd .level-info{color:#3c3c3c}.site-nav .site-nav-login .site-nav-menu-bd .level-info.super{color:#c98d46}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-info{height:80px;overflow:hidden;*zoom:1}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-info p{height:20px;line-height:20px;overflow:hidden;*zoom:1}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-info .site-nav-user-operate{text-align:right}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-wrapper{float:left;margin-right:10px;margin-left:9px;width:62px;height:62px;padding:9px;box-sizing:content-box}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-wrapper.super{background:url(//img.alicdn.com/tfs/TB16U6nQFXXXXarXVXXXXXXXXXX-28-28.png) 48px -5px no-repeat}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-wrapper.apass{background:url(//img.alicdn.com/tfs/TB1XKvpQFXXXXaWXVXXXXXXXXXX-28-28.png) 51px -3px no-repeat}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-avatar{display:block;overflow:hidden;border:3px solid #fff;-moz-border-radius:50%;-webkit-border-radius:50%;border-radius:50%}.site-nav .site-nav-login .site-nav-menu-bd .site-nav-user-avatar img{display:block;width:56px;height:56px}.site-nav-status-logout .site-nav-login .site-nav-menu-bd,.site-nav-status-logout .site-nav-login .site-nav-user{display:none}.site-nav-status-login .site-nav-login .site-nav-sign{display:none}.site-nav .mini-cart .site-nav-menu-bd .site-nav-menu-bd-panel{width:296px;line-height:20px;min-height:40px;background:#fff url(//img.alicdn.com/tps/i3/T1b1m3XkVpXXXXXXXX-32-32.gif) no-repeat 50% 50%}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-ready{background:#fff}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-closed{background:#fff;width:105px}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-hd{padding:10px 0}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd{border-bottom:1px solid #EEE;overflow:hidden;*zoom:1}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd li{margin-bottom:10px;height:40px;overflow:hidden;*zoom:1}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd .mini-cart-img{float:left;margin-right:10px;width:40px;height:40px;display:inline-block;overflow:hidden;text-align:center}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd .mini-cart-img a{display:inline;position:static;line-height:1.5}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-bd .mini-cart-img a img{vertical-align:middle}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-title{height:20px;overflow:hidden;*zoom:1}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-title a{float:left;width:168px;white-space:nowrap;overflow:hidden;text-overflow:ellipsis}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-info{height:20px;overflow:hidden;*zoom:1;color:#9C9C9C}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-count{float:right}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-count .mini-cart-price{margin-left:5px}.site-nav .mini-cart .site-nav-menu-bd .mini-cart-del{float:right}.site-nav .mini-cart .mini-cart-ft{text-align:right}.site-nav .mini-cart .mini-cart-ft p{margin-top:10px}.site-nav .mini-cart .menu-hd .g-icon{color:#f40}.site-nav .site-nav-sitemap .hot{background:url(//img.alicdn.com/tps/i2/T1hOy5XhNnXXXXXXXX-9-14.gif) no-repeat}.site-nav .site-nav-sitemap .new{background:url(//img.alicdn.com/tps/i3/T1lni5XhXXXXXXXXXX-9-14.gif) no-repeat}.site-nav .site-nav-sitemap .site-nav-menu-bd .site-nav-menu-panel{overflow:hidden;position:absolute;right:0;left:auto;width:988px;min-height:258px;line-height:normal;border:1px solid #eee;background:#fff}.site-nav .site-nav-sitemap .site-nav-sitemap-mod{float:left;width:25%;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap{padding:5px;border-right:1px solid #eee;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap h4{margin:5px;font-size:16px;font-weight:600;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap li{*position:relative;float:left;padding-top:5px;width:30%;height:25px;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a{position:relative;float:left;height:25px;line-height:25px;margin:0 2px;padding:0 8px;-moz-border-radius:2px;-webkit-border-radius:2px;border-radius:2px}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a:after{content:"";display:table;clear:both}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a:hover{color:#fff;background-color:#f50}.site-nav .site-nav-sitemap .site-nav-sitemap-mod-wrap a i{position:absolute;top:-5px;right:0;display:block;width:9px;height:14px;overflow:hidden}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(1) .site-nav-sitemap-mod-wrap a:hover{background-color:#f50}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(2) .site-nav-sitemap-mod-wrap a:hover{background-color:#a0b959}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(3) .site-nav-sitemap-mod-wrap a:hover{background-color:#df61ab}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(4) .site-nav-sitemap-mod-wrap{border-right:none}.site-nav .site-nav-sitemap .site-nav-sitemap-mod:nth-child(4) .site-nav-sitemap-mod-wrap a:hover{background-color:#52a0e5}.site-nav .tmsg{float:left}.site-nav .tmsg .site-nav-menu .tmsg_icon{_padding-top:9px}.site-nav .tmsg .site-nav-menu .tmsg_loading{margin:-5px 5px 0 0;vertical-align:middle}.site-nav .tmsg .site-nav-menu .tmsg_logo_icon{line-height:0;width:8px;display:inline-block;vertical-align:middle;margin-top:0;*display:inline;_display:inline-block}.site-nav .tmsg .site-nav-menu .tmsg_light-sign,.site-nav .tmsg .site-nav-menu .tmsg_logo{display:none}.site-nav .tmsg_logo_loading{display:inline-block;width:13px}.site-nav .tmsg_logo_area{float:left}.site-nav-status-logout .site-nav-tmsg{display:none}.site-nav .site-nav-weekend img{vertical-align:bottom}.site-nav .site-nav-weekend .site-nav-menu-hd{overflow:hidden}@media (max-width:1009px){.site-nav .site-nav-weekend{display:none!important}}.tb-global-pad-notice{width:100%;height:60px;overflow:hidden;position:relative}.tb-global-pad-notice span{position:absolute;top:10px;right:10px;width:40px;height:40px;background-color:rgba(0,0,0,.3);display:block;line-height:40px;font-size:28px;text-align:center;color:#fff;border-radius:20px;-webkit-font-smoothing:antialiased}.site-nav-at-mobile{border-bottom:none}.site-nav-at-mobile .site-nav-bd{height:40px}.site-nav-at-mobile .site-nav-catalog,.site-nav-at-mobile .site-nav-home,.site-nav-at-mobile .site-nav-mobile,.site-nav-at-mobile .site-nav-seller{display:none}.site-nav-at-mobile .siete-nav-menu .site-nav-menu-hd{height:40px;line-height:40px}.site-nav-at-mobile .siete-nav-menu i{position:relative;-moz-transition:none;-o-transition:none;-webkit-transition:none;transition:none;position:absolute;margin:0;display:none;bottom:-1px;left:40%;width:12px;height:6px}.site-nav-at-mobile .siete-nav-menu i em,.site-nav-at-mobile .siete-nav-menu i span{position:absolute;top:0;left:0;width:0;height:0;border-color:rgba(255,255,255,0);border-color:transparent\9;*border-color:transparent;_border-color:tomato;_filter:chroma(color=tomato);border-style:solid;overflow:hidden;*zoom:1;border-width:0 5px 5px}.site-nav-at-mobile .siete-nav-menu i em{top:-1px;border-bottom-color:#eee}.site-nav-at-mobile .siete-nav-menu i span{border-bottom-color:#fff}.site-nav-at-mobile .site-nav-menu-hover .site-nav-menu-hd i{display:block}.site-nav-at-mobile .site-nav-menu-hover .site-nav-menu-bd{display:block}.site-nav-at-mobile .site-nav-login img{cursor:pointer;margin:2px 0;-moz-border-radius:50%;-webkit-border-radius:50%;border-radius:50%;border:2px solid #fff}.site-nav-at-mobile .site-nav-bd-r .site-nav-pipe{display:none}@media (max-width:1219px){.site-nav-at-mobile .site-nav-bd{width:990px}.site-nav-at-mobile .site-nav-sitemap .mod li{width:33%}}@media (max-width:1009px){.site-nav-at-mobile .site-nav-bd{width:740px}.site-nav-at-mobile .site-nav-guide,.site-nav-at-mobile .site-nav-seller{display:none}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel{width:722px}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel .mod{width:50%}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel .mod li{width:20%}.site-nav-at-mobile .site-nav-sitemap .site-nav-menu-bd-panel .mod-b .mod-wrap{border-right:none}.site-nav-at-mobile .site-nav-weekend{display:none}}.tb-ie-updater-layer{position:absolute;left:0;top:0;bottom:0;right:0;width:100%;height:100%;background-color:#000;filter:alpha(opacity=50);opacity:.5;z-index:99999999}.tb-ie-updater-box{position:absolute;left:50%;top:50%;margin-left:-292px;margin-top:-210px;width:584px;height:420px;background:url(//img.alicdn.com/tps/TB1pH4SLpXXXXXEXVXXXXXXXXXX-584-419.png) no-repeat;z-index:100000000}.tb-ie-updater-box a{position:absolute;text-decoration:none;color:#71a403;font-size:14px;width:130px;height:32px;background-color:#FFF;text-align:center;line-height:32px}.tb-ie-updater-box a:hover{font-weight:700}.tb-ie-updater-google{left:55px;top:107px}.tb-ie-updater-uc{top:107px;left:212px}.site-nav .site-nav-switch .site-nav-region{float:left;margin-right:7px}.site-nav .site-nav-region-list{padding-top:8px;max-height:270px;overflow-y:scroll;border:1px solid #f4f4f4}.site-nav .site-nav-region-list .site-nav-region-item{width:242px;height:29px;line-height:29px;padding-left:8px;cursor:pointer}.site-nav .site-nav-region-list .site-nav-region-item.active,.site-nav .site-nav-region-list .site-nav-region-item:hover{background-color:#f4f4f4}.tmsg_panel_apps,.tmsg_panel_detail,.tmsg_panel_history,.tmsg_panel_setting{width:288px;border-top:0;position:absolute;background:#FFF;box-shadow:1px 1px 2px #ddd;z-index:10000000000}.tmsg_panel_head{height:37px;line-height:37px;position:relative;text-align:center;border-bottom:1px solid #EEE}.tmsg_panel_foot{height:32px;border-top:1px solid #EEE;position:relative}
+  &lt;/style&gt;
+  &lt;link rel="stylesheet" href="//g.alicdn.com/??tbhome/taobao-2021/0.0.30/lib/style/page-min.css,tbhome/taobao-2021/0.0.30/lib/style/index-min.css"&gt;
+  &lt;link rel="stylesheet" href="//g.alicdn.com/main-search/new-search-suggest/0.0.2/bundle.css"&gt;
+  &lt;script&gt;
+    window.cdnHost = "g.alicdn.com";
+    window.staticConfig = {"shop":{},"superbanner":{},"focus":[{"imgUrl":"https://img.alicdn.com/tfs/TB1E1aHWoH1gK0jSZSyXXXtlpXa-160-280.jpg","trackinfo":"{\"expose\":{\"lygImp\":\"1\",\"lyg\":\"10276.lyg_hcjh_0_0.4663.0.lygSuper;59958.lyg_flowplatform_-1_161.82146.4888\",\"impid\":\"07cd5fb1-a158-4758-88c6-75e355d241ad\"},\"click\":{\"lygImp\":\"1\",\"lyg\":\"10276.lyg_hcjh_0_0.4663.0.lygSuper;59958.lyg_flowplatform_-1_161.82146.4888\",\"impid\":\"07cd5fb1-a158-4758-88c6-75e355d241ad\"}}","distinctId":"15996000134011","code":"63438","dataSetId":14992744,"name":"天猫-服饰-内衣","id":"0","targetUrl":"https://neiyi.tmall.com/?spm=875.7931836/B.category2016010.2.66144265NvDhb3&amp;acm=lb-zebra-148799-667863.1003.4.708026&amp;scm=1003.4.lb-zebra-148799-667863.OTHER_14561681423980_708026","__pos__":1,"__track__":"14807860.14807860.17120207.2.1"}],"decorations":{},"injectAfter":[],"mytao":{"footmark":"https://www.taobao.com/markets/footmark/tbfoot","distinctId":"1632024095480","collectshop":"https://shoucang.taobao.com/shop_collect_list_n.htm","dataSetId":20475805,"sellshop":"https://favorite.taobao.com/list_bought_shops_n.htm","id":"1632024095480","collect":"https://shoucang.taobao.com/item_collect.htm","__pos__":1,"__track__":"19752936.19752936.23006477.2.1"},"fixedtool":{"moduleinfo":{"feedback":"false","distinctId":"15917324023721","dataSetId":14992859,"feedbackVersion":"0.1.33","id":"15917324023721","__pos__":1,"__track__":"14809065.14809065.17120312.2.1"},"distinctId":"15917323898931","controls":[{"distinctId":"15917324753291","dataSetId":14992862,"left":"false","id":"15917324753291","__pos__":1,"__track__":"14809063.14809063.17120315.2.1"}],"nouse":"","dataSetId":14992832,"id":"15917323898931","tools":[{"distinctId":"15917324556931","dataSetId":14992861,"name":"品质&lt;br&gt;好货","index":"1","clickme":"false","id":"15917324556931","url":"","tool":"goods","__pos__":1,"__track__":"14809066.14809066.17120314.2.1"},{"distinctId":"15917309166975","dataSetId":14992861,"name":"猜你&lt;br&gt;喜欢","index":"6","clickme":"false","id":"15917309166975","url":"","tool":"hotsale","__pos__":2,"__track__":"14809066.14809066.17120314.2.2"},{"distinctId":"15917305319486","dataSetId":14992861,"name":"&lt;i class=tb-ifont&gt;&lt;/i&gt;顶部","index":"7","clickme":"false","id":"15917305319486","url":"","tool":"gotop","__pos__":3,"__track__":"14809066.14809066.17120314.2.3"},{"distinctId":"15917316861957","dataSetId":14992861,"name":"&lt;i&gt;反馈&lt;/i&gt;","index":"8","clickme":"false","id":"15917316861957","url":"http://survey.taobao.com/survey/kgsa2JZE2","tool":"","__pos__":4,"__track__":"14809066.14809066.17120314.2.4"},{"distinctId":"15917313014468","dataSetId":14992861,"name":"暴恐&lt;br&gt;举报","index":"9","clickme":"false","id":"15917313014468","url":"https://www.12377.cn/","tool":"","__pos__":5,"__track__":"14809066.14809066.17120314.2.5"}],"__pos__":1,"__track__":"14818794.14818794.17120285.2.1","switch":[{"distinctId":"15917324190571","dataSetId":14992860,"id":"15917324190571","__pos__":1,"__track__":"14809064.14809064.17120313.2.1","on":"true"}]},"promo":[{"dtP":"false","tanx":"false","backup":"true","img":"https://img.alicdn.com/tfs/TB1FjZ7VWL7gK0jSZFBXXXZZpXa-520-280.png","chance":"","isope":"false","dt":"true","distinctId":"15917296549741","dataSetId":14992733,"id":"20140506001","href":"https://yao.tmall.com/?spm=875.7931836/B.2016004.6.66144265jDNE35&amp;acm=lb-zebra-148799-667861.1003.4.2429983&amp;scm=1003.4.lb-zebra-148799-667861.OTHER_14561829993617_2429983","text":"","tag":"false","__pos__":1,"__track__":"14812932.14812932.17120196.2.1"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917294443522","dataSetId":14992733,"id":"mm_12852562_1778064_13670999","href":"http://www.taobao.com","text":"","tag":"false","__pos__":2,"__track__":"14812932.14812932.17120196.2.2"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917305985993","dataSetId":14992733,"id":"mm_12852562_1778064_13674396","href":"http://www.taobao.com","text":"","tag":"false","__pos__":3,"__track__":"14812932.14812932.17120196.2.3"},{"dtP":"false","tanx":"true","backup":"false","img":"//g.alicdn.com/s.gif","chance":1,"isope":"false","dt":"false","distinctId":"15917302138514","dataSetId":14992733,"id":"mm_12852562_1778064_13672849","href":"http://www.taobao.com","text":"","tag":"false","__pos__":4,"__track__":"14812932.14812932.17120196.2.4"},{"dtP":"false","tanx":"false","backup":"true","img":"https://img.alicdn.com/tfs/TB1wOidVWL7gK0jSZFBXXXZZpXa-520-280.jpg","chance":"","isope":"false","dt":"true","distinctId":"15917282901085","dataSetId":14992733,"id":"20140506002","href":"https://pages.tmall.com/wow/a/act/tmall/dailygroup/1376/wupr?wh_pid=daily-187090","text":"","tag":"false","__pos__":5,"__track__":"14812932.14812932.17120196.2.5"}],"search":{"distinctId":"15917278587291","nouse":"","dataSetId":14992732,"itemLabels":[{"distinctId":"15917279248231","dataSetId":14992790,"query":"手持式洗衣机","holder":"随身携带的洗衣机。好腻害的样子( ⊙ o ⊙ )啊！","id":"15917279248231","__pos__":1,"__track__":"14809020.14809020.17120251.2.1"},{"distinctId":"15917275400742","dataSetId":14992790,"query":"电子鼓","holder":"听说在家打鼓也不怕被投诉啦","id":"15917275400742","__pos__":2,"__track__":"14809020.14809020.17120251.2.2"},{"distinctId":"15917286943203","dataSetId":14992790,"query":"叠衣板","holder":"懒人必备叠衣板哟哟哟，切克闹~","id":"15917286943203","__pos__":3,"__track__":"14809020.14809020.17120251.2.3"}],"shopLabels":[],"fline":[{"distinctId":"15917279910541","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=连衣裙&amp;refpid=420460_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f66","text":"新款连衣裙","id":"15917279910541","__pos__":1,"__track__":"14809018.14809018.17120252.2.1","enhance":"false"},{"distinctId":"15917276063052","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=四件套&amp;refpid=420461_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"四件套","id":"15917276063052","__pos__":2,"__track__":"14809018.14809018.17120252.2.2","enhance":"false"},{"distinctId":"15917287605513","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=T恤&amp;refpid=420462_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"潮流T恤","id":"15917287605513","__pos__":3,"__track__":"14809018.14809018.17120252.2.3","enhance":"true"},{"distinctId":"15917283758024","dataSetId":14992791,"link":"https://s.taobao.com/search?q=%E5%A5%B3%E9%9E%8B&amp;refpid=420466_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f68","text":"时尚女鞋","id":"15917283758024","__pos__":4,"__track__":"14809018.14809018.17120252.2.4","enhance":"false"},{"distinctId":"15917264520585","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=短裤&amp;refpid=430145_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"短裤","id":"15917264520585","__pos__":5,"__track__":"14809018.14809018.17120252.2.5","enhance":"false"},{"distinctId":"15917260673096","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=半身裙&amp;refpid=430146_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"半身裙","id":"15917260673096","__pos__":6,"__track__":"14809018.14809018.17120252.2.6","enhance":"false"},{"distinctId":"15917272215567","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=男士外套&amp;refpid=430147_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"男士外套","id":"15917272215567","__pos__":7,"__track__":"14809018.14809018.17120252.2.7","enhance":"false"},{"distinctId":"15917268368078","dataSetId":14992791,"link":"https://s.taobao.com/search?q=墙纸&amp;refpid=430148_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f70","text":"墙纸","id":"15917268368078","__pos__":8,"__track__":"14809018.14809018.17120252.2.8","enhance":"false"},{"distinctId":"15917249130629","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=行车记录仪&amp;refpid=420467_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"行车记录仪","id":"15917249130629","__pos__":9,"__track__":"14809018.14809018.17120252.2.9","enhance":"false"},{"distinctId":"159172452831310","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=男鞋&amp;refpid=430144_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f69","text":"新款男鞋","id":"159172452831310","__pos__":10,"__track__":"14809018.14809018.17120252.2.10","enhance":"false"},{"distinctId":"159172568256011","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=耳机&amp;refpid=420463_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f67","text":"耳机","id":"159172568256011","__pos__":11,"__track__":"14809018.14809018.17120252.2.11","enhance":"false"},{"distinctId":"159172529781112","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=女包&amp;refpid=420464_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f68","text":"时尚女包","id":"159172529781112","__pos__":12,"__track__":"14809018.14809018.17120252.2.12","enhance":"false"},{"distinctId":"159172337406713","dataSetId":14992791,"link":"http://s.taobao.com/search?spm=1.7274553.1997520241-2.2.TpEKPQ&amp;q=沙发&amp;refpid=420465_1006&amp;source=tbsy&amp;style=grid&amp;tab=all&amp;pvid=d0f2ec2810bcec0d5a16d5283ce59f68","text":"沙发","id":"159172337406713","__pos__":13,"__track__":"14809018.14809018.17120252.2.13","enhance":"false"}],"id":"15917278587291","__pos__":1,"__track__":"14814902.14814902.17120195.2.1","switch":[{"distinctId":"15917278686371","dataSetId":14992789,"showHotWord":"true","id":"15917278686371","__pos__":1,"__track__":"14809021.14809021.17120250.2.1"}]},"pageConfig":{"abtest":[{"bucket":"0","distinctId":"15917328227921","dataSetId":14992898,"id":"15917328227921","__pos__":1,"__track__":"14809101.14809101.17120351.2.1","on":"true"}],"distinctId":"15917327926581","nouse":"","dataSetId":14992856,"id":"15917327926581","list":[{"autoStop":"true","distinctId":"15917328076491","showSidebar":"false","dataSetId":14992897,"pwa":"false","id":"15917328076491","__pos__":1,"__track__":"14809102.14809102.17120350.2.1"}],"__pos__":1,"__track__":"14816794.14816794.17120309.2.1"},"corner":[{"path":"/mm/tb-page-peel/0.0.5/index","distinctId":"15917326980531","dataSetId":14992836,"id":"15917326980531","title":"","__pos__":1,"__track__":"14798087.14798087.17120289.2.1","on":"true"}],"helper":[{"distinctId":"15917325374381","dataSetId":14992835,"name":"消费者保障","icon":"xe619","id":"15917325374381","items":[{"distinctId":"15917325572531","dataSetId":14992863,"link":"https://rule.taobao.com/detail-1690.htm?spm=a2177.7231193.0.0.623f17eayw1xeN&amp;tag=self","text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1148,17 +1191,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="12.7777777777778"/>
+    <col min="2" max="2" customWidth="true" style="1" width="23.3333333333333"/>
+    <col min="3" max="3" customWidth="true" style="1" width="10.0"/>
+    <col min="4" max="4" customWidth="true" style="1" width="58.4444444444444"/>
+    <col min="5" max="6" customWidth="true" style="1" width="10.0"/>
+    <col min="7" max="7" customWidth="true" style="1" width="25.6666666666667"/>
+    <col min="8" max="8" customWidth="true" style="1" width="29.8888888888889"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.3333333333333"/>
+    <col min="10" max="10" customWidth="true" style="1" width="10.0"/>
+    <col min="11" max="11" customWidth="true" style="1" width="17.6666666666667"/>
+    <col min="12" max="16384" customWidth="true" style="1" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
@@ -1222,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -1248,10 +1291,10 @@
         <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:10">
